--- a/log_history/Y4_B2526_Clinical_Pathology_scanner1766573021775_f60595a30ca6a0193902c87dfedc7629adb8b6fa9cb0121406fe26ee574f1414.xlsx
+++ b/log_history/Y4_B2526_Clinical_Pathology_scanner1766573021775_f60595a30ca6a0193902c87dfedc7629adb8b6fa9cb0121406fe26ee574f1414.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Clinical_Pathology" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
